--- a/va_facility_data_2025-02-20/Martinsburg VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Martinsburg%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Martinsburg VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Martinsburg%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R2a648d21d0524a1098aadee136205ca7"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R32c6d5e3739f4ad9923cde93af9dee86"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rc984b7e825164e50a8267b4a353294de"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R7d7f3dcdd4d647cebbf9de57962879b5"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R60c4f6a849584fc2b845901088d80a60"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R2c53a595003c45e584290c6e4bb2f820"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R931f3487927f44e3bebf2571c2055d6a"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R3877eeb4a6004100a736f6af1cb2c41c"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb4ab966edef94ce88bf817c6d9315f1e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R006c9fd71c5549f8bc69de3b35c088fe"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R08db3f3bfed34cc497a3d7de2f5f5aab"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Re2b55196916d4b7eb16b07aaf0ada3c6"/>
   </x:sheets>
 </x:workbook>
 </file>
